--- a/Excel_Appender/Excel_Files_To_Append/ilanlar_3.xlsx
+++ b/Excel_Appender/Excel_Files_To_Append/ilanlar_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,80 +498,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATA EMLKTAN ŞİRİNYER İZBAN YK GENİŞ 3+1 DAİRE</t>
+          <t>Buca da Çaldıran Mahalesinde Kiralık Geniş 1+1 Daire</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Çaldıran Mah.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20.500
+          <t>11.500
 TL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3 + 2</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>108 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>41 Yaşında</t>
+          <t>30 Yaşında</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/6425-4608</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-caldiran-kiralik/daire/122602-142</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Kömür-Odun</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ŞİRİNYER MERKEZE YAKIN 2 ODA 1 SALON ARAKAT DAİRE</t>
+          <t>ARGA'DAN BUCA HÜRRİYET MH.ARAKAT 2+1 AÇIK MUTFAK KİRALIK DAİRE.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22.500
+          <t>17.000
 TL</t>
         </is>
       </c>
@@ -582,7 +582,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/27958-377</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/63598-143</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -624,75 +624,70 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GENİŞ, 2 ODA 1 SALON BAHÇELİ YÜKSEK ZEMİN</t>
+          <t>Remax Arma ' dan Buca Hasanağa ya Yürüme Mesafesin de 2+0 KİRALIK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.500
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>2 + 0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>109 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>29 Yaşında</t>
+          <t>18 Yaşında</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/13470-2483</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/126264-1823</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Isıtma Yok</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Buca Çevik-1'de Çift Cepheli Sıfır 2+1 Balkonlu Otoparklı Asansörlü ESNAFOĞLU'ndan..</t>
+          <t>BUCA DA MERKEZİ KONUMDA 2+1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -708,27 +703,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/67273-3995</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/149792-18</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -750,7 +745,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAH ARAKAT KİRALİK BALKONLU D.GAZLİ 2+1 100 M2 DAİRE</t>
+          <t>HASANAĞA BAHÇESİNE 5 DK MESAFEDE FUL EŞYALI 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -760,7 +755,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15.000
+          <t>15.750
 TL</t>
         </is>
       </c>
@@ -771,32 +766,32 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/111716-1109</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104396-106</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -813,53 +808,53 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LORA’DAN ATATÜRK MAHALLESİ SIFIR EŞYALI DOĞALGAZLI ARAKAT</t>
+          <t>YİĞİTLER MAH.3+1 DOĞALGAZLI FULL TADİLATLI 125 M2 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Yiğitler Mah.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>125 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/150727-5</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/18435-5272</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -876,48 +871,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAHALLESİNDE ÜNİVERSİTEYE YAKIN 2+0 GAYET KULLANIŞLI DOĞALGAZLI ARAKAT KİRALIK DAİRE</t>
+          <t>Buca Yaylacık Mahallesinde Kiralık Eşyalı 1+1 Doğalgazlı Daire</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18.500
+          <t>15.500
 TL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/150876-5</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/15356-5760</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -939,70 +934,65 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ONE HOUSE’DAN ADATEPE MAHALLESİNDE 1+1 EŞYALI DAİRE</t>
+          <t>Buca Laleli Mah. Kiralık 2+1 Daire</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144273-130</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/151855-11</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>SAFİR'den Atatürk Mahallesinde Doğalgazlı&amp;Klimalı Kiralık Daire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1012,7 +1002,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15.000
+          <t>17.000
 TL</t>
         </is>
       </c>
@@ -1038,12 +1028,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1087</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/109159-321</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1053,45 +1043,45 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BUCA GÖKSUDA KİRALIK DOĞALGAZLI 3+1 DAİRE</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Göksu Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15.000
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1101,55 +1091,55 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/149571-5</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/71024-1081</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Buca Kozağaç Mah. 2+1 95 M2 Doğalgazlı Kapalı Mutfak Kiralık Daire</t>
+          <t>İzmir Buca' da 3+1 Kiralık Daire</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19.000
+          <t>27.500
 TL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>115 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Kot 1</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1159,7 +1149,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/24511-9152</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/51456-7249</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1169,7 +1159,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1181,17 +1171,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ERA NİVA GAYRİMENKUL 'DEN KİRALIK 2+1 DAİRE</t>
+          <t>İzmir buca sirinkapi 2+1 mustaki1038 sok no 20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Şirinkapı Mah.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17.000
+          <t>14.500
 TL</t>
         </is>
       </c>
@@ -1202,27 +1192,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/140088-487</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-sirinkapi-kiralik/daire/66676-129</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1233,23 +1223,28 @@
       <c r="K13" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Buca'da 1750 m2 Arsa İçinde Havuzlu, Eşyalı Lüsk Kiralık Daire</t>
+          <t>BUCA GÜNLÜK HAFTALIK LÜKS DAİRELER</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Karacaağaç Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>50.000
+          <t>200
 TL</t>
         </is>
       </c>
@@ -1260,39 +1255,39 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.750 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>2 Yaşında</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-karacaagac-kiralik/villa/151800-4</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/138098-16</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hasanağa bahçesi ve üniversiteye yürüme mesafesinde 3+1 site içerisinde kiralık daire</t>
+          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI KONSEPT EŞYALI 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1302,43 +1297,43 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>21 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Zemin</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/139431-31</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-251</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1355,7 +1350,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bucada Kiralık Daire Kampüs Yakını Full Eşyalı D.Gaz ve Klimalı</t>
+          <t>ERA NİVA'DAN KURUÇEŞME'DE KİRALIK EŞYALI 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1365,7 +1360,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16.500
+          <t>17.000
 TL</t>
         </is>
       </c>
@@ -1376,7 +1371,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>53 m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1391,12 +1386,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/21671-6364</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/140088-477</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1407,149 +1402,139 @@
       <c r="K16" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TINAZTEPE HST YAKINI ÜNİVERSİTE VE KIZ YURDUNA ÇEVRE YOLUNA YAKIN DOĞALGAZLI, EŞYALI 2+1 DAİRE</t>
+          <t>BUCA HÜRRİYET MAH.'DE 3+1 ARA KAT BAKIMLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Güven Mah.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8 Yaşında</t>
+          <t>30 Yaşında</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43580621</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/111960-234</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ATATÜRK MAH'DE SİTE İÇİ ARA KAT D. GAZLI FULL EŞYALI 1+1 DAİRE</t>
+          <t>Buca Göksu Mah İnkılap İzban Dibi 3+1 120 M2 D.gazlı</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Göksu Mah.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17.000
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>21 Yaşında</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5. Kat</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-123</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/83461-581</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ÜNİVERSİTE KARŞISI ARAKAT DOĞALGAZLI SIFIR LÜX EŞYALI  KİRALIK DAİRE</t>
+          <t>Yiğitler Adnan Kahveci cd. Uygun Fiyatlı Kiralık Daire</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>33.000
+          <t>13.500
 TL</t>
         </is>
       </c>
@@ -1560,12 +1545,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>74 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>30 Yaşında</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1575,75 +1560,75 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43551010</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/24511-9155</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Oyak Buca 2.Etap Havuz Manzaralı ve Kapalı Balkonlu 3+1 Kiralık Daire</t>
+          <t>BUCA ADATEPE MAH ARAKAT 2+1 110 M2 DUBLEKS CIFT BALKONLU KIRALIK DAİRE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Aydoğdu Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>37.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>147 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>9 Yaşında</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/2499-11688</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111716-1108</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1653,7 +1638,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1665,48 +1650,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAYGIN GAYRİMENKUL DEN ÜÇKUYULAR MEYDANINDA BALKONLU KLİMALI 2+1 EŞYALI KİRALIK DAİRE</t>
+          <t>ATAMER GAYRİMENKUL'DEN FULL EŞYALI 1+1 DAİRE.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/146420-26</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/151729-5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1717,54 +1702,54 @@
       <c r="K21" t="inlineStr">
         <is>
           <t>Klima</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BUCA MURATHAN MH EVKA-1 VE YEDİ GÖLLER YAKINI MÜSTAKİL DUBLEX 4+1 150M2 DOĞALGAZLI KİRALIK EV</t>
+          <t>YENİGÜN BÖLGESİNDE KİRALIK 3+1 DAİRE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Murathan Mah.</t>
+          <t>İzmir / Buca / Fırat Mah.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>30.000
+          <t>35.000
 TL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>150 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-murathan-kiralik/mustakil-ev/23746-17336</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/14003-1481</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1774,7 +1759,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1786,111 +1771,116 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>YILDIZ MH SAĞLIK OCAĞI KARŞISI '2+1' ARAKAT-DGAZ-BALKON-K.MUTFAK</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12.000
+          <t>16.250
 TL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1086</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/104457-81</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Şirinyer Efeler Mh. 3+1 150 M2 Doğalgazlı K.Mutfak Kiralık Daire</t>
+          <t>HASANAĞA BAHÇESİNE 5 DK MESAFEDE FUL EŞYALI 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>150 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>23 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/24511-9145</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104396-105</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1907,111 +1897,106 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ONE HOUSE’DAN KURUÇEŞME MAHALLESİNDE 1+1 EŞYALI KİRALIK DAİRE</t>
+          <t>Buca Aydoğdu Mah. Toki Konutları Kiralık 3+1 Daire</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Aydoğdu Mah.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15.000
+          <t>22.000
 TL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>125 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144273-129</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/151855-10</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ATA EMLKTAN ŞİRİNYER İZBAN YK GENİŞ 3+1 DAİRE</t>
+          <t>Buca Hasanağa Bahçesi Yanı Klimalı Eşyalı İnternetli 1+1 Kiralık</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20.500
+          <t>12.750
 TL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3 + 2</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>41 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/6425-4608</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/151862-10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2021,108 +2006,103 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ŞİRİNYER MERKEZE YAKIN 2 ODA 1 SALON ARAKAT DAİRE</t>
+          <t>SAFİR'den Kampüs Karşısı Geniş Bahçeli Kiralık Daire</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>22.500
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/27958-377</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-294</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GENİŞ, 2 ODA 1 SALON BAHÇELİ YÜKSEK ZEMİN</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 KLİMALI&amp;EŞYALI KİRALIK DAİR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13.500
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>109 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>29 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Kot 1</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2132,39 +2112,34 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/13470-2483</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1080</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Buca Çevik-1'de Çift Cepheli Sıfır 2+1 Balkonlu Otoparklı Asansörlü ESNAFOĞLU'ndan..</t>
+          <t>Buca Kuruçeşme’de, Merkezi Konumda, 2+1 Kiralık Daire</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20.000
+          <t>16.500
 TL</t>
         </is>
       </c>
@@ -2175,32 +2150,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>58 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/67273-3995</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/126264-1838</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2217,53 +2192,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAH ARAKAT KİRALİK BALKONLU D.GAZLİ 2+1 100 M2 DAİRE</t>
+          <t>Buca Şirinyer Akıncılar Seyhan Mahallesi//Koşu izbana 8-10dk//Site İçi//150m2//Arakat Ful Yapılı Dai</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Seyhan Mah.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15.000
+          <t>30.000
 TL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>155 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/111716-1109</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-seyhan-kiralik/daire/85846-1884</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2275,12 +2245,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LORA’DAN ATATÜRK MAHALLESİ SIFIR EŞYALI DOĞALGAZLI ARAKAT</t>
+          <t>İZMİR BUCADA KİRALIK 2+1( EŞYALI İSTENİRSE ÖĞRENCİYE KİRALANIR)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2291,59 +2261,64 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>23 Yaşında</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/150727-5</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/104662-601</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAHALLESİNDE ÜNİVERSİTEYE YAKIN 2+0 GAYET KULLANIŞLI DOĞALGAZLI ARAKAT KİRALIK DAİRE</t>
+          <t>ÜNÜVAR EMLAK'TAN BUCA'DA 2+1 DOĞALGAZLI KİRALIK DAİRE...</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>18.500
+          <t>22.000
 TL</t>
         </is>
       </c>
@@ -2354,60 +2329,70 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/150876-5</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/110036-590</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ONE HOUSE’DAN ADATEPE MAHALLESİNDE 1+1 EŞYALI DAİRE</t>
+          <t>ŞİRİNYER İZBAN YANI 3+1 135 M2 D.GAZLI DAİRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16.000
+          <t>22.500
 TL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>47 m²</t>
+          <t>135 m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2417,22 +2402,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144273-130</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/110918-1067</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2449,53 +2434,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>TINAZTEPE HASTAHANESİ YAKINI GÜNLÜK LÜKS DAİRELER</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15.000
+          <t>200
 TL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1087</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/138098-15</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2507,58 +2487,53 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BUCA GÖKSUDA KİRALIK DOĞALGAZLI 3+1 DAİRE</t>
+          <t>BUCA CAMLIKULEDE 1+1 FULL EŞYALI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Göksu Mah.</t>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/149571-5</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/149792-13</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2570,7 +2545,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Buca Kozağaç Mah. 2+1 95 M2 Doğalgazlı Kapalı Mutfak Kiralık Daire</t>
+          <t>BUCA ÇEVİKBİR MEYDAN BUCA SSK YANINDA ARAKAT 3+1 D.GAZLİ BALKONLU KIRALIK DAIRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2580,28 +2555,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Kot 1</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2611,7 +2586,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/24511-9152</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/111716-963</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2633,17 +2608,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ERA NİVA GAYRİMENKUL 'DEN KİRALIK 2+1 DAİRE</t>
+          <t>ŞİRİNYER MERKEZE YAKIN 2 ODA 1 SALON ARAKAT DAİRE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17.000
+          <t>22.500
 TL</t>
         </is>
       </c>
@@ -2654,7 +2629,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2664,17 +2639,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/140088-487</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/27958-377</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2684,7 +2659,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2696,17 +2671,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Buca'da 1750 m2 Arsa İçinde Havuzlu, Eşyalı Lüsk Kiralık Daire</t>
+          <t>buca pazaryerine yakın mustakil bahçeli ev otoparklı altında 80mz depolu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Karacaağaç Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>50.000
+          <t>18.000
 TL</t>
         </is>
       </c>
@@ -2717,90 +2692,90 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.750 m²</t>
+          <t>135 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>35 Yaşında</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-karacaagac-kiralik/villa/151800-4</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/mustakil-ev/99575-349</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Soba</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Kömür-Odun</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hasanağa bahçesi ve üniversiteye yürüme mesafesinde 3+1 site içerisinde kiralık daire</t>
+          <t>BUCA 9 EYLÜL ÜNİVERSTESİ YAKINI 1+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>25.000
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>21 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Zemin</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/139431-31</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/77173-1073</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2817,75 +2792,75 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bucada Kiralık Daire Kampüs Yakını Full Eşyalı D.Gaz ve Klimalı</t>
+          <t>ONE HOUSE DAN 2+0 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16.500
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/21671-6364</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144273-133</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TINAZTEPE HST YAKINI ÜNİVERSİTE VE KIZ YURDUNA ÇEVRE YOLUNA YAKIN DOĞALGAZLI, EŞYALI 2+1 DAİRE</t>
+          <t>BUCA GEDİZ SEVGİ YOLU YAKININDA İÇİ TADİLATLI KİRALIK 2+1 DAİRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / İnönü Mah.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17.000
+          <t>13.000
 TL</t>
         </is>
       </c>
@@ -2896,85 +2871,90 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>8 Yaşında</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43580621</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inonu-kiralik/daire/104396-101</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ATATÜRK MAH'DE SİTE İÇİ ARA KAT D. GAZLI FULL EŞYALI 1+1 DAİRE</t>
+          <t>Şirinyer Forbes Caddesinde Eşyalı Kiralık Ofis</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17.000
+          <t>40.000
 TL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>125 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>26 Yaşında</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-123</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/151855-3</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2991,169 +2971,169 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ÜNİVERSİTE KARŞISI ARAKAT DOĞALGAZLI SIFIR LÜX EŞYALI  KİRALIK DAİRE</t>
+          <t>Buca Yaylacık Mah Arakat Doğalgazlı Balkonlu Kiralık 1+1 Daire..</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>33.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43551010</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/151862-9</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oyak Buca 2.Etap Havuz Manzaralı ve Kapalı Balkonlu 3+1 Kiralık Daire</t>
+          <t>ÜÇKUYULAR MEYDAN VE FAKÜLTELER YAKINI '2+1' EŞYALI-DGAZLI DAİRE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Aydoğdu Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>37.000
+          <t>17.250
 TL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>147 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>17 Yaşında</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/2499-11688</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-78</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SAYGIN GAYRİMENKUL DEN ÜÇKUYULAR MEYDANINDA BALKONLU KLİMALI 2+1 EŞYALI KİRALIK DAİRE</t>
+          <t>SAFİR'den Hasanağa Yakını Eşyalı Bahçeli Kiralık 1+1 Daire</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/146420-26</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/109159-290</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3164,86 +3144,86 @@
       <c r="K45" t="inlineStr">
         <is>
           <t>Klima</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BUCA MURATHAN MH EVKA-1 VE YEDİ GÖLLER YAKINI MÜSTAKİL DUBLEX 4+1 150M2 DOĞALGAZLI KİRALIK EV</t>
+          <t>GÜNEŞ'TEN ŞİRİNYER METRO 5DK 1+1 50M EŞYALI ASANSÖR 2.KAT AÇIK MUTFAK</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Murathan Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>30.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>150 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>2 Yaşında</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-murathan-kiralik/mustakil-ev/23746-17336</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-797</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Isıtma Yok</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>MARKA'DAN CADDE&amp;KAMPÜS YAKINI BAŞKONLU&amp;EŞYALI 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12.000
+          <t>15.000
 TL</t>
         </is>
       </c>
@@ -3264,7 +3244,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3274,7 +3254,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1086</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1079</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3284,45 +3264,40 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Şirinyer Efeler Mh. 3+1 150 M2 Doğalgazlı K.Mutfak Kiralık Daire</t>
+          <t>Buca İzkent Mahalesinde 2+1 Doğalgaz'lı Kiralık Daire</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / İzkent Mah.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>28.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>150 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>23 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3332,12 +3307,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/24511-9145</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-izkent-kiralik/daire/51456-7243</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3348,39 +3323,44 @@
       <c r="K48" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ONE HOUSE’DAN KURUÇEŞME MAHALLESİNDE 1+1 EŞYALI KİRALIK DAİRE</t>
+          <t>EŞYALI-2 ODA 1 SALON  SIFIR DAİRELER-SIFIR EŞYALAR-DOĞALGAZLI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15.000
+          <t>23.000
 TL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3390,12 +3370,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144273-129</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/13470-2454</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3405,14 +3385,19 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ATA EMLKTAN ŞİRİNYER İZBAN YK GENİŞ 3+1 DAİRE</t>
+          <t>Buca Şirinyer Hürriyet Mah 2+1 100 M2 D.gazlı İzban 5 Dk</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3422,149 +3407,149 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20.500
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3 + 2</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>41 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>25-10-2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/6425-4608</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/83461-589</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ŞİRİNYER MERKEZE YAKIN 2 ODA 1 SALON ARAKAT DAİRE</t>
+          <t>VALİRAHMİBEY MH 3+1 DOĞALGAZLI KİRALIK</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>22.500
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/27958-377</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/14003-1498</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GENİŞ, 2 ODA 1 SALON BAHÇELİ YÜKSEK ZEMİN</t>
+          <t>ADATEPE MAH.HASANAĞA BAHÇESİ YAKINI DOĞALGAZLI 2+0 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>13.500
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>109 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>29 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3574,24 +3559,34 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/13470-2483</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/18435-5276</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Buca Çevik-1'de Çift Cepheli Sıfır 2+1 Balkonlu Otoparklı Asansörlü ESNAFOĞLU'ndan..</t>
+          <t>KİRALIK DAİRE EŞYALI 3+1 120 M2 DOĞALGAZLI ÇİFT BALKONLU ARA KAT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Gaziler Mah.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3602,32 +3597,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>30 Yaşında</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/67273-3995</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-gaziler-kiralik/daire/111960-233</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3642,19 +3637,19 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAH ARAKAT KİRALİK BALKONLU D.GAZLİ 2+1 100 M2 DAİRE</t>
+          <t>ADATEPE MAHALLESİNDE DOĞALGAZLI FULL EŞYALI KİRALIK 1+1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3665,153 +3660,148 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>2 Yaşında</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/111716-1109</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/150997-3</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LORA’DAN ATATÜRK MAHALLESİ SIFIR EŞYALI DOĞALGAZLI ARAKAT</t>
+          <t>ŞİRİNYER MERKEZE YAKIN KONUMDA 3+1 ARAKAT ASANSÖRLÜ DOĞALGAZLI DAİRE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>119 m²</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/150727-5</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/27958-375</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAHALLESİNDE ÜNİVERSİTEYE YAKIN 2+0 GAYET KULLANIŞLI DOĞALGAZLI ARAKAT KİRALIK DAİRE</t>
+          <t>ATA EMLKTAN LALELİ MAHALLESİNDE MENDERES CADDESİ YAKINI 3+1 DAİRE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>18.500
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/150876-5</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/6425-4612</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3822,59 +3812,64 @@
       <c r="K56" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ONE HOUSE’DAN ADATEPE MAHALLESİNDE 1+1 EŞYALI DAİRE</t>
+          <t>Erdem Caddesi civarı 4+1 150 m2 3 Cepheli Doğalgazlı Bakımlı Arakat Daire</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>4 + 1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>47 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144273-130</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/3526-3154</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3891,7 +3886,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>BUCA ATATÜRK MAH ARAKAT KİRALİK BALKONLU D.GAZLİ 2+1 100 M2 DAİRE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3907,32 +3902,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1087</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/111716-1109</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3954,48 +3949,48 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BUCA GÖKSUDA KİRALIK DOĞALGAZLI 3+1 DAİRE</t>
+          <t>Hürriyet Mh 2+1 K. Mutfak Ebvyn Banyolu Asansörlü Kiralık Daire</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Göksu Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>15.000
+          <t>23.500
 TL</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>105 m²</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>9 Yaşında</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>01-11-2024</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/149571-5</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/24511-9140</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4010,24 +4005,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Buca Kozağaç Mah. 2+1 95 M2 Doğalgazlı Kapalı Mutfak Kiralık Daire</t>
+          <t>Ev arkadaşı</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>19.000
+          <t>7.500
 TL</t>
         </is>
       </c>
@@ -4038,7 +4033,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4048,17 +4043,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Kot 1</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/24511-9152</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/0-43679526</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4068,45 +4063,40 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ERA NİVA GAYRİMENKUL 'DEN KİRALIK 2+1 DAİRE</t>
+          <t>Kampüse Yakın ,Site İçerisinde, Arakat, Eşyalı Daire</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>17.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>26 Yaşında</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4116,12 +4106,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/140088-487</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/151855-1</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4131,35 +4121,35 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Buca'da 1750 m2 Arsa İçinde Havuzlu, Eşyalı Lüsk Kiralık Daire</t>
+          <t>Buca Yaylacık Mah Sıfır Balkonlu Doğalgazlı Kiralık 1+1 Daire...</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Karacaağaç Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>50.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.750 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4167,46 +4157,46 @@
           <t>Sıfır Bina</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Giriş Katı</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-karacaagac-kiralik/villa/151800-4</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/151862-8</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hasanağa bahçesi ve üniversiteye yürüme mesafesinde 3+1 site içerisinde kiralık daire</t>
+          <t>ATÖLYE'DEN HASANAĞA BAHÇESİ YAKINI TADİLATLI 135 M² KİRALIK 3+1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>25.000
+          <t>18.000
 TL</t>
         </is>
       </c>
@@ -4217,44 +4207,408 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>140 m²</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>20 Yaşında</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>04-11-2024</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104396-91</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>EFELER MH SEYFİDEMİRSOY YAKINI ''3+1'' ARAKAT-ÇİFT CEPHE-DGAZLI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Efeler Mah.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>18.000
+TL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>120 m²</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>30 Yaşında</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>05-11-2024</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/104457-70</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GÜNEŞ'TEN ŞİRİNYER İZBAN 10DK 3+1 130M Y. GİRİŞ BALKON 3 TUVALET ÖNÜ AÇIK</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>23.000
+TL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>130 m²</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>21 Yaşında</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Zemin</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>15 Yaşında</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>09-11-2024</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-751</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI&amp;KLİMALI 1+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>13.000
+TL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3 Yaşında</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1068</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>EŞYALI, DOĞALGAZLI- KLİMALI-3 ODA 1 SALON 130 M2,LÜX DAİRE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Efeler Mah.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>27.500
+TL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>135 m²</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>23 Yaşında</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>03-11-2024</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/13470-2471</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Şirinyer Merkezi Konumda Migros Karşı Sokağı 3+1 Doğalgazlı</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Güven Mah.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>21.000
+TL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>120 m²</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>26 Yaşında</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>26-10-2024</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/139431-31</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/142245-164</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BUCA ADA EMLAKTN DUMLUPINAR MAHALLESİNDE 2+1 KİRALIK MÜSTAKİL EV</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Dumlupınar Mah.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>31 Yaşında</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Bahçe Katı</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/mustakil-ev/145203-52</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
